--- a/HISTORIC_CORRECCIONS/DF_REAL_PED.xlsx
+++ b/HISTORIC_CORRECCIONS/DF_REAL_PED.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,16 @@
           <t>A_ESTADO_FACTURACION_CP</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>A_FECHA_ENTREGA_CP</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>_merge</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -686,6 +696,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA2" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -804,6 +822,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA3" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -922,62 +948,28 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA4" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5796</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ADG32 5796 NSACARES SL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pagada</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ALUBIX SL</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45952</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>537495</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2025/00005</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>3714.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6158.9</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
@@ -1038,6 +1030,14 @@
       <c r="Z5" t="inlineStr">
         <is>
           <t>Totalmente facturado</t>
+        </is>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
@@ -1110,6 +1110,12 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1180,6 +1186,12 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1298,6 +1310,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA8" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1416,6 +1436,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA9" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1534,6 +1562,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA10" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1652,6 +1688,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA11" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1770,6 +1814,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA12" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1888,6 +1940,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA13" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2006,6 +2066,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA14" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2124,6 +2192,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA15" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2242,6 +2318,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA16" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2360,6 +2444,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA17" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2478,6 +2570,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA18" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2596,6 +2696,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA19" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2714,6 +2822,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA20" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2832,6 +2948,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA21" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2950,6 +3074,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA22" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3068,6 +3200,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA23" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3186,6 +3326,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA24" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3304,6 +3452,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA25" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3422,6 +3578,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA26" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3540,6 +3704,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA27" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3658,6 +3830,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA28" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3776,6 +3956,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA29" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3894,6 +4082,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA30" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4012,6 +4208,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA31" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4130,6 +4334,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA32" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4248,6 +4460,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA33" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4366,6 +4586,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA34" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4484,6 +4712,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA35" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4602,6 +4838,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA36" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4720,6 +4964,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA37" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4838,6 +5090,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA38" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4956,6 +5216,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA39" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5074,6 +5342,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA40" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5192,6 +5468,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA41" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5310,6 +5594,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA42" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5428,6 +5720,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA43" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5546,6 +5846,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA44" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5664,6 +5972,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA45" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5782,6 +6098,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA46" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5900,6 +6224,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA47" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6018,6 +6350,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA48" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6136,6 +6476,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA49" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6254,6 +6602,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA50" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6372,6 +6728,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA51" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6490,6 +6854,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA52" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6608,6 +6980,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA53" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6726,6 +7106,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA54" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6844,6 +7232,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA55" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6962,6 +7358,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA56" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7080,6 +7484,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA57" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7198,6 +7610,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA58" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7316,6 +7736,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA59" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7434,6 +7862,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA60" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7552,6 +7988,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA61" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7670,6 +8114,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA62" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7788,6 +8240,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA63" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7906,6 +8366,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA64" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8024,6 +8492,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA65" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8142,6 +8618,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA66" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8260,6 +8744,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA67" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8378,6 +8870,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA68" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8496,6 +8996,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA69" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8614,6 +9122,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA70" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8732,6 +9248,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA71" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8850,6 +9374,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA72" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8968,6 +9500,14 @@
           <t>Totalmente facturado</t>
         </is>
       </c>
+      <c r="AA73" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9084,6 +9624,14 @@
       <c r="Z74" t="inlineStr">
         <is>
           <t>Totalmente facturado</t>
+        </is>
+      </c>
+      <c r="AA74" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>both</t>
         </is>
       </c>
     </row>
